--- a/biology/Zoologie/Carybdeidae/Carybdeidae.xlsx
+++ b/biology/Zoologie/Carybdeidae/Carybdeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carybdeidae est une famille de cnidaires cubozoaires, de l'ordre des Carybdeida.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les carybdeidae sont des cuboméduses ne comportant que 4 tentacules, ou 2 groupes de 2 ou 3 ; chaque tentacule a son propre pedalium (pied).
 </t>
@@ -542,14 +556,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 mars 2012)[2] et NCBI  (12 mars 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 mars 2012) et NCBI  (12 mars 2012) :
 genre Carybdea Péron &amp; Lesueur, 1810
-Selon Catalogue of Life                                   (12 mars 2012)[4] :
+Selon Catalogue of Life                                   (12 mars 2012) :
 genre Carybdea Péron &amp; Lesueur, 1809
 genre Tripedalia Conant, 1897
-Selon ITIS      (22 mai 2015)[1] :
+Selon ITIS      (22 mai 2015) :
 genre Carybdea Péron &amp; Lesueur, 1809
 genre Tamoya Müller, 1859
 genre Tripedalia Conant, 1897
